--- a/biology/Botanique/Dokonon/Dokonon.xlsx
+++ b/biology/Botanique/Dokonon/Dokonon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Dokonon, (aussi appelé Duckunoo ou Duckanoo dans certaines iles de la Caraïbe), est une boulette de patate douce de la Jamaïque, Guyane, Antigua-et-Barbuda, Saint-Vincent-et-les-Grenadines et la Barbade.
-Parfois fait en pudding, ce dessert est une variante de la cuvette ducana qui est un plat originaire d'Afrique. Il est fabriqué avec de la patate douce râpée, farine ou semoule de maïs (par défaut), noix de coco, raisins secs, gingembre, sucre, etc. L'ensemble est enveloppé dans une feuille de bananier et ensuite cuit dans de l'eau bouillante[1],[2],[3],[4],[5],[6],[7],[8],[9],[10],[11],[12],[13],[14],[15],[16],[17],[18],[19].
+Parfois fait en pudding, ce dessert est une variante de la cuvette ducana qui est un plat originaire d'Afrique. Il est fabriqué avec de la patate douce râpée, farine ou semoule de maïs (par défaut), noix de coco, raisins secs, gingembre, sucre, etc. L'ensemble est enveloppé dans une feuille de bananier et ensuite cuit dans de l'eau bouillante.
 Ils sont fabriqués à partir de patates douces râpées, de noix de coco râpée, de sucre, de farine, de lait et/ou d'eau de coco, de raisins secs, de gingembre, de noix de muscade râpée, de sel et d'essence ou d'extrait de vanille.
 Le mélange est combiné dans un bol jusqu'à ce qu'il recouvre abondamment le dos d'une cuillère. La méthode de cuisson est assez simple, mais le plus compliqué reste l'emballage. Le mélange peut être cuit enveloppé dans une feuille où d'autres préfèrent le faire cuire enveloppé dans des feuilles de bananiers, ou des feuilles balnéaire de raisin. De toute façon les contenus enveloppés doivent être bouillies dans l'eau salée pendant environ 25 minutes ou jusqu'à ce que le mélange dans l'emballage soit ferme.
 Après la cuisson, il est souvent servi avec de la morue de sel et ce que les anglophones appellent "chop-up" qui est un mélange d'épinards, l'aubergine et le gombo. Il est également consommé en fines tranches et frit légèrement.
@@ -516,7 +528,9 @@
           <t>Différents noms</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dokonon est l'appelation guyanaise de ce dessert, toutefois, les noms varient en fonction du lieu par exemple "Ducana" est le nom donné par les habitants de la Barbade et de l'Antigua-et-Barbuda ainsi que quelques-unes des îles de la Caraïbe.
 </t>
@@ -547,7 +561,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les peuples d'Afrique ont amené cette recette en Guyane et Antigua-et-Barbuda, ainsi que dans certaines îles de la Caraïbe.
 </t>
